--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1358893.702627955</v>
+        <v>1357936.252967266</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584667</v>
+        <v>460545.8926584665</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8354178.661977267</v>
+        <v>8354178.661977268</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>210.1515323233967</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>190.1066023865956</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -747,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>143.207491162812</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>53.77232092074711</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>190.1066023865956</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,64 +905,64 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>88.93311775391584</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>109.364731275353</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,25 +1023,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>63.24215619956617</v>
       </c>
     </row>
     <row r="7">
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>130.4655268502615</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,73 +1130,73 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>190.1066023865956</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F8" t="n">
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>190.3453970742847</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>98.22847700514947</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>121.8668959675858</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>400.3009038102001</v>
+        <v>2.087181142002828</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>85.21754235472463</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1458,10 +1458,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
         <v>105.9637990594094</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749142</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G13" t="n">
-        <v>10.5421541965934</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
         <v>157.3867970498209</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>163.6851955497072</v>
@@ -1661,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>226.5674513251595</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>172.4881521378465</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>121.4165796131833</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>10.5421541965934</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>54.86879163620181</v>
@@ -1813,10 +1813,10 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>92.4784086463653</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>215.9776011748348</v>
+        <v>117.889549819912</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1889,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1932,16 +1932,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>91.6867458199809</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1986,10 +1986,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>48.37669028362031</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>16.83786409935511</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>187.9216174196134</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,25 +2081,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>232.0095242284297</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>148.4614915389107</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>61.12808787351305</v>
       </c>
       <c r="U21" t="n">
-        <v>60.36693997173244</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.39611534654148</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>37.75272239616699</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2281,16 +2281,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,13 +2324,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>249.1906658919158</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.089049841944</v>
+        <v>351.1836920796898</v>
       </c>
       <c r="H23" t="n">
         <v>327.0451232326991</v>
@@ -2378,10 +2378,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2451,10 +2451,10 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8986597023843</v>
+        <v>22.44088855367314</v>
       </c>
       <c r="V24" t="n">
-        <v>29.34281600071414</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.12240526463283</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>54.44663919424258</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,16 +2564,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>318.2801892474972</v>
+        <v>290.3946492333829</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2679,22 +2679,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8986597023843</v>
+        <v>219.9881595201828</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>146.0025648277593</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>91.35315769505117</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4465608509556</v>
+        <v>122.3078802415591</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>117.6128210615398</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>86.28070072961441</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2877,7 +2877,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>37.22402582628369</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>144.1648043931067</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
         <v>225.8986597023843</v>
@@ -2950,22 +2950,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>20.81789375578485</v>
       </c>
       <c r="F31" t="n">
-        <v>83.99752067737398</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>265.6975038695004</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>362.4150396299758</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3114,7 +3114,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>14.02661070418143</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>197.5472709665096</v>
@@ -3165,7 +3165,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>89.18211739820566</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3205,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3238,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>109.1800806357979</v>
       </c>
       <c r="V34" t="n">
-        <v>43.3560697996877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3275,13 +3275,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>209.4893497036898</v>
       </c>
       <c r="H35" t="n">
-        <v>117.889549819912</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2485578939812</v>
@@ -3326,13 +3326,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8986597023843</v>
+        <v>120.206241369224</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>94.38897766723555</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3475,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>16.83786409935544</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
-        <v>190.2462252260553</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>335.2658174961477</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>369.1381077138932</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,10 +3566,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U39" t="n">
-        <v>60.36693997173244</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>136.1664131224705</v>
       </c>
       <c r="E40" t="n">
-        <v>59.57056692594212</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3703,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,25 +3740,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>327.0451232326991</v>
+        <v>10.14488884397982</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,19 +3785,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>276.3013470391633</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3819,25 +3819,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>114.7196543111938</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,13 +3913,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>109.1800806357979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>18.99614978889537</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,10 +3992,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>160.5755272656819</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.7829317747374</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>314.3007706111017</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4065,13 +4065,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>24.64815776426666</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
         <v>67.03858805571424</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.5472709665096</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="U45" t="n">
         <v>225.8986597023843</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>145.7404008510709</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>16.83786409935511</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.75394372784808</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="C2" t="n">
-        <v>53.75394372784808</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="D2" t="n">
-        <v>53.75394372784808</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4355,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>509.4769954460863</v>
+        <v>772.0302844130649</v>
       </c>
       <c r="Y2" t="n">
-        <v>266.0282188019862</v>
+        <v>528.5815077689649</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>718.233594585934</v>
+        <v>432.9682111954345</v>
       </c>
       <c r="C3" t="n">
-        <v>543.7805653048071</v>
+        <v>258.5151819143075</v>
       </c>
       <c r="D3" t="n">
-        <v>394.8461556435558</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E3" t="n">
-        <v>394.8461556435558</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F3" t="n">
-        <v>248.3115976704407</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G3" t="n">
         <v>109.5807722530562</v>
@@ -4434,25 +4434,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>718.233594585934</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>718.233594585934</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>718.233594585934</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V3" t="n">
-        <v>718.233594585934</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W3" t="n">
-        <v>718.233594585934</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X3" t="n">
-        <v>718.233594585934</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y3" t="n">
-        <v>718.233594585934</v>
+        <v>432.9682111954345</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>577.2332497330343</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C5" t="n">
-        <v>577.2332497330343</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D5" t="n">
-        <v>577.2332497330343</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E5" t="n">
-        <v>577.2332497330343</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>577.2332497330343</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>577.2332497330343</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>577.2332497330343</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y5" t="n">
-        <v>577.2332497330343</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>619.4388494194218</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>619.4388494194218</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>619.4388494194218</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,13 +4647,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4671,25 +4671,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W6" t="n">
-        <v>619.4388494194218</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X6" t="n">
-        <v>619.4388494194218</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="Y6" t="n">
-        <v>619.4388494194218</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="7">
@@ -4759,10 +4759,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E8" t="n">
-        <v>710.516763498309</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F8" t="n">
-        <v>467.067986854209</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G8" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>398.1570697793896</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C9" t="n">
-        <v>223.7040404982626</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D9" t="n">
-        <v>223.7040404982626</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E9" t="n">
-        <v>223.7040404982626</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F9" t="n">
-        <v>223.7040404982626</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>118.5018269537981</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>566.3724067994576</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>566.3724067994576</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>566.3724067994576</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>566.3724067994576</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y9" t="n">
-        <v>566.3724067994576</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1954.610490106405</v>
+        <v>1327.358309730192</v>
       </c>
       <c r="C11" t="n">
-        <v>1585.647973165993</v>
+        <v>958.3957927897804</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.647973165993</v>
+        <v>600.13009418303</v>
       </c>
       <c r="E11" t="n">
-        <v>1199.859720567749</v>
+        <v>214.3418415847858</v>
       </c>
       <c r="F11" t="n">
-        <v>795.5153732847182</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G11" t="n">
-        <v>377.243605767603</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H11" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5072,19 +5072,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="U11" t="n">
-        <v>2344.749822082216</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="V11" t="n">
-        <v>2344.749822082216</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.749822082216</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="X11" t="n">
-        <v>2344.749822082216</v>
+        <v>1717.497641706004</v>
       </c>
       <c r="Y11" t="n">
-        <v>1954.610490106405</v>
+        <v>1327.358309730192</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>704.2697763643505</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C12" t="n">
-        <v>529.8167470832235</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D12" t="n">
-        <v>380.8823374219722</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E12" t="n">
-        <v>221.6448824165167</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F12" t="n">
-        <v>221.6448824165167</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G12" t="n">
         <v>221.6448824165167</v>
@@ -5118,52 +5118,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M12" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N12" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O12" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P12" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2284.306083296871</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="S12" t="n">
-        <v>2123.072528197426</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="T12" t="n">
-        <v>1923.529830251457</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U12" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V12" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W12" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X12" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y12" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F13" t="n">
-        <v>412.4263787765005</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G13" t="n">
         <v>401.7777381738809</v>
@@ -5218,31 +5218,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2115.893810642661</v>
+        <v>1410.453767052119</v>
       </c>
       <c r="C14" t="n">
-        <v>2115.893810642661</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.628112035911</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="E14" t="n">
-        <v>1371.839859437666</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="F14" t="n">
-        <v>960.8539546480588</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G14" t="n">
-        <v>542.5821871309436</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H14" t="n">
         <v>212.2335778049849</v>
@@ -5309,19 +5309,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="U14" t="n">
-        <v>2115.893810642661</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V14" t="n">
-        <v>2115.893810642661</v>
+        <v>2170.519365377321</v>
       </c>
       <c r="W14" t="n">
-        <v>2115.893810642661</v>
+        <v>2170.519365377321</v>
       </c>
       <c r="X14" t="n">
-        <v>2115.893810642661</v>
+        <v>1797.053607116241</v>
       </c>
       <c r="Y14" t="n">
-        <v>2115.893810642661</v>
+        <v>1797.053607116241</v>
       </c>
     </row>
     <row r="15">
@@ -5358,40 +5358,40 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K15" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L15" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M15" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N15" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O15" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P15" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T15" t="n">
-        <v>1923.529830251457</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U15" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V15" t="n">
-        <v>1695.349365905614</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W15" t="n">
         <v>1572.706356195328</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>412.4263787765005</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="C16" t="n">
-        <v>412.4263787765005</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="D16" t="n">
-        <v>412.4263787765005</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="E16" t="n">
-        <v>412.4263787765005</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="F16" t="n">
-        <v>412.4263787765005</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="I16" t="n">
         <v>102.3180182963936</v>
@@ -5461,25 +5461,25 @@
         <v>412.4263787765005</v>
       </c>
       <c r="S16" t="n">
-        <v>412.4263787765005</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="T16" t="n">
-        <v>412.4263787765005</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="U16" t="n">
-        <v>412.4263787765005</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="V16" t="n">
-        <v>412.4263787765005</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="W16" t="n">
-        <v>412.4263787765005</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="X16" t="n">
-        <v>412.4263787765005</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="Y16" t="n">
-        <v>412.4263787765005</v>
+        <v>102.3180182963936</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2126.590628976322</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C17" t="n">
-        <v>1757.628112035911</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.628112035911</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E17" t="n">
-        <v>1371.839859437666</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F17" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G17" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5537,28 +5537,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T17" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U17" t="n">
-        <v>2344.749822082216</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V17" t="n">
-        <v>2344.749822082216</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.749822082216</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X17" t="n">
-        <v>2344.749822082216</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y17" t="n">
-        <v>2344.749822082216</v>
+        <v>165.9753497950908</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C18" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D18" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E18" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F18" t="n">
-        <v>46.89499644164432</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G18" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H18" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L18" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.568096156132</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O18" t="n">
         <v>2039.343247810003</v>
@@ -5634,10 +5634,10 @@
         <v>1205.95990094567</v>
       </c>
       <c r="X18" t="n">
-        <v>998.1084007401373</v>
+        <v>1157.094557224842</v>
       </c>
       <c r="Y18" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="C19" t="n">
         <v>46.89499644164432</v>
@@ -5695,28 +5695,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>236.7148120170114</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>46.89499644164432</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V19" t="n">
-        <v>46.89499644164432</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>63.90293997634646</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1991.981166812102</v>
+        <v>1640.221176477566</v>
       </c>
       <c r="C20" t="n">
-        <v>1991.981166812102</v>
+        <v>1271.258659537154</v>
       </c>
       <c r="D20" t="n">
-        <v>1757.628112035911</v>
+        <v>912.9929609304036</v>
       </c>
       <c r="E20" t="n">
-        <v>1371.839859437666</v>
+        <v>527.2047083321593</v>
       </c>
       <c r="F20" t="n">
-        <v>960.8539546480588</v>
+        <v>527.2047083321593</v>
       </c>
       <c r="G20" t="n">
-        <v>542.5821871309436</v>
+        <v>527.2047083321593</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>196.8560990062006</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5786,16 +5786,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="V20" t="n">
-        <v>2344.749822082216</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="W20" t="n">
-        <v>1991.981166812102</v>
+        <v>2013.686934738646</v>
       </c>
       <c r="X20" t="n">
-        <v>1991.981166812102</v>
+        <v>1640.221176477566</v>
       </c>
       <c r="Y20" t="n">
-        <v>1991.981166812102</v>
+        <v>1640.221176477566</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.8792202047736</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C21" t="n">
-        <v>814.4261909236466</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D21" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E21" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F21" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G21" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
         <v>46.89499644164432</v>
@@ -5832,7 +5832,7 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L21" t="n">
         <v>642.6780758583286</v>
@@ -5856,25 +5856,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T21" t="n">
-        <v>2123.072528197426</v>
+        <v>2222.560539990292</v>
       </c>
       <c r="U21" t="n">
-        <v>2062.095821155272</v>
+        <v>1994.38007564445</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.94371292353</v>
+        <v>1759.227967412707</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.706356195328</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.854855989795</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y21" t="n">
-        <v>1157.094557224842</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1783.87624508755</v>
+        <v>225.5122166689762</v>
       </c>
       <c r="C22" t="n">
-        <v>1783.87624508755</v>
+        <v>225.5122166689762</v>
       </c>
       <c r="D22" t="n">
-        <v>1783.87624508755</v>
+        <v>225.5122166689762</v>
       </c>
       <c r="E22" t="n">
-        <v>1783.87624508755</v>
+        <v>225.5122166689762</v>
       </c>
       <c r="F22" t="n">
-        <v>1783.87624508755</v>
+        <v>225.5122166689762</v>
       </c>
       <c r="G22" t="n">
-        <v>1783.87624508755</v>
+        <v>225.5122166689762</v>
       </c>
       <c r="H22" t="n">
-        <v>1783.87624508755</v>
+        <v>187.3781536425449</v>
       </c>
       <c r="I22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L22" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M22" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N22" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O22" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P22" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>2303.765562347826</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R22" t="n">
-        <v>2303.765562347826</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S22" t="n">
-        <v>2303.765562347826</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="T22" t="n">
-        <v>2303.765562347826</v>
+        <v>225.5122166689762</v>
       </c>
       <c r="U22" t="n">
-        <v>2303.765562347826</v>
+        <v>225.5122166689762</v>
       </c>
       <c r="V22" t="n">
-        <v>2303.765562347826</v>
+        <v>225.5122166689762</v>
       </c>
       <c r="W22" t="n">
-        <v>2303.765562347826</v>
+        <v>225.5122166689762</v>
       </c>
       <c r="X22" t="n">
-        <v>2075.776011449809</v>
+        <v>225.5122166689762</v>
       </c>
       <c r="Y22" t="n">
-        <v>1854.983432306279</v>
+        <v>225.5122166689762</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1623.547602762834</v>
+        <v>897.3131892316403</v>
       </c>
       <c r="C23" t="n">
-        <v>1623.547602762834</v>
+        <v>897.3131892316403</v>
       </c>
       <c r="D23" t="n">
-        <v>1623.547602762834</v>
+        <v>897.3131892316403</v>
       </c>
       <c r="E23" t="n">
-        <v>1371.839859437666</v>
+        <v>897.3131892316403</v>
       </c>
       <c r="F23" t="n">
-        <v>960.8539546480588</v>
+        <v>897.3131892316403</v>
       </c>
       <c r="G23" t="n">
         <v>542.5821871309436</v>
@@ -5987,16 +5987,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M23" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N23" t="n">
         <v>1610.799342072557</v>
@@ -6008,31 +6008,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U23" t="n">
-        <v>2344.749822082216</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V23" t="n">
         <v>2013.686934738646</v>
       </c>
       <c r="W23" t="n">
-        <v>2013.686934738646</v>
+        <v>1660.918279468532</v>
       </c>
       <c r="X23" t="n">
-        <v>2013.686934738646</v>
+        <v>1287.452521207452</v>
       </c>
       <c r="Y23" t="n">
-        <v>1623.547602762834</v>
+        <v>897.3131892316403</v>
       </c>
     </row>
     <row r="24">
@@ -6078,13 +6078,13 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N24" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O24" t="n">
-        <v>1887.88481026779</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P24" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
@@ -6099,7 +6099,7 @@
         <v>2084.763385350902</v>
       </c>
       <c r="U24" t="n">
-        <v>1856.582921005059</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V24" t="n">
         <v>1826.94371292353</v>
@@ -6172,25 +6172,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T25" t="n">
-        <v>379.8701515943957</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="U25" t="n">
-        <v>379.8701515943957</v>
+        <v>101.891601688354</v>
       </c>
       <c r="V25" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W25" t="n">
-        <v>90.45298155743507</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X25" t="n">
-        <v>90.45298155743507</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.45298155743507</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>960.8539546480588</v>
+        <v>826.8434181716636</v>
       </c>
       <c r="C26" t="n">
-        <v>960.8539546480588</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="D26" t="n">
-        <v>960.8539546480588</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="E26" t="n">
-        <v>960.8539546480588</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F26" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G26" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H26" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
@@ -6251,25 +6251,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S26" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T26" t="n">
-        <v>1867.1984047608</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U26" t="n">
-        <v>1613.411982645667</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V26" t="n">
-        <v>1282.349095302096</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W26" t="n">
-        <v>960.8539546480588</v>
+        <v>1977.048348472677</v>
       </c>
       <c r="X26" t="n">
-        <v>960.8539546480588</v>
+        <v>1603.582590211597</v>
       </c>
       <c r="Y26" t="n">
-        <v>960.8539546480588</v>
+        <v>1213.443258235785</v>
       </c>
     </row>
     <row r="27">
@@ -6306,40 +6306,40 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
-        <v>336.0641406922996</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L27" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N27" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O27" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P27" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S27" t="n">
-        <v>2183.516266982771</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T27" t="n">
-        <v>2183.516266982771</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="U27" t="n">
-        <v>1955.335802636929</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V27" t="n">
-        <v>1720.183694405186</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W27" t="n">
         <v>1572.706356195328</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>607.7685734363102</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="C28" t="n">
-        <v>607.7685734363102</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="D28" t="n">
-        <v>607.7685734363102</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="E28" t="n">
-        <v>607.7685734363102</v>
+        <v>170.4383098169565</v>
       </c>
       <c r="F28" t="n">
-        <v>515.4926565726222</v>
+        <v>170.4383098169565</v>
       </c>
       <c r="G28" t="n">
-        <v>346.3547163191317</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I28" t="n">
         <v>46.89499644164432</v>
@@ -6421,13 +6421,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="W28" t="n">
-        <v>607.7685734363102</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X28" t="n">
-        <v>607.7685734363102</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="Y28" t="n">
-        <v>607.7685734363102</v>
+        <v>318.3514033993496</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1223.272650669856</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="C29" t="n">
-        <v>854.3101337294443</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="D29" t="n">
-        <v>496.0444351226938</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="E29" t="n">
-        <v>496.0444351226938</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="F29" t="n">
-        <v>496.0444351226938</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G29" t="n">
-        <v>377.243605767603</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H29" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
@@ -6485,28 +6485,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S29" t="n">
-        <v>2087.181164129222</v>
+        <v>2161.554709220193</v>
       </c>
       <c r="T29" t="n">
-        <v>1867.1984047608</v>
+        <v>2161.554709220193</v>
       </c>
       <c r="U29" t="n">
-        <v>1613.411982645668</v>
+        <v>2074.402486260986</v>
       </c>
       <c r="V29" t="n">
-        <v>1613.411982645668</v>
+        <v>1743.339598917416</v>
       </c>
       <c r="W29" t="n">
-        <v>1613.411982645668</v>
+        <v>1390.570943647302</v>
       </c>
       <c r="X29" t="n">
-        <v>1613.411982645668</v>
+        <v>1017.105185386222</v>
       </c>
       <c r="Y29" t="n">
-        <v>1223.272650669856</v>
+        <v>1017.105185386222</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>676.0544483625931</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C30" t="n">
-        <v>501.6014190814661</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D30" t="n">
-        <v>352.6670094202149</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E30" t="n">
-        <v>193.4295544147594</v>
+        <v>261.1452999255819</v>
       </c>
       <c r="F30" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="G30" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H30" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I30" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K30" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L30" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M30" t="n">
         <v>1125.906134925503</v>
@@ -6570,22 +6570,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T30" t="n">
-        <v>1977.451513658935</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U30" t="n">
-        <v>1749.271049313092</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V30" t="n">
-        <v>1514.118941081349</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W30" t="n">
-        <v>1259.881584353148</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X30" t="n">
-        <v>1052.030084147615</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y30" t="n">
-        <v>844.2697853826612</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.957242938686</v>
       </c>
       <c r="C31" t="n">
-        <v>2344.749822082216</v>
+        <v>1955.021060010779</v>
       </c>
       <c r="D31" t="n">
-        <v>2344.749822082216</v>
+        <v>1804.904420598444</v>
       </c>
       <c r="E31" t="n">
-        <v>2196.836728499823</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F31" t="n">
-        <v>2111.990748017627</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G31" t="n">
-        <v>1942.852807764137</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H31" t="n">
         <v>1783.87624508755</v>
@@ -6664,7 +6664,7 @@
         <v>2344.749822082216</v>
       </c>
       <c r="Y31" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.957242938686</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1640.221176477566</v>
+        <v>1568.010650042283</v>
       </c>
       <c r="C32" t="n">
-        <v>1640.221176477566</v>
+        <v>1568.010650042283</v>
       </c>
       <c r="D32" t="n">
-        <v>1640.221176477566</v>
+        <v>1209.744951435532</v>
       </c>
       <c r="E32" t="n">
-        <v>1371.839859437666</v>
+        <v>823.9566988372881</v>
       </c>
       <c r="F32" t="n">
-        <v>960.8539546480588</v>
+        <v>412.9707940476805</v>
       </c>
       <c r="G32" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L32" t="n">
         <v>762.5916738244549</v>
@@ -6734,16 +6734,16 @@
         <v>2344.749822082216</v>
       </c>
       <c r="V32" t="n">
-        <v>2013.686934738646</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W32" t="n">
-        <v>2013.686934738646</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X32" t="n">
-        <v>1640.221176477566</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y32" t="n">
-        <v>1640.221176477566</v>
+        <v>1954.610490106405</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>829.641765199318</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C33" t="n">
-        <v>655.188735918191</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D33" t="n">
-        <v>506.2543262569397</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E33" t="n">
         <v>506.2543262569397</v>
@@ -6780,19 +6780,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L33" t="n">
-        <v>645.6158192373775</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M33" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N33" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O33" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P33" t="n">
         <v>2344.749822082216</v>
@@ -6804,25 +6804,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S33" t="n">
-        <v>2330.581528441629</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T33" t="n">
-        <v>2131.03883049566</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U33" t="n">
-        <v>1902.858366149817</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V33" t="n">
-        <v>1667.706257918074</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W33" t="n">
-        <v>1413.468901189873</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X33" t="n">
-        <v>1205.61740098434</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y33" t="n">
-        <v>997.857102219386</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="C34" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="D34" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="E34" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="F34" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="G34" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="H34" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I34" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J34" t="n">
         <v>46.89499644164432</v>
@@ -6886,22 +6886,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T34" t="n">
-        <v>379.8701515943957</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>90.68900634031877</v>
+        <v>497.4856637031811</v>
       </c>
       <c r="V34" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="W34" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="X34" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.89499644164432</v>
+        <v>242.8011754972942</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>165.9753497950908</v>
+        <v>999.8349142983113</v>
       </c>
       <c r="C35" t="n">
-        <v>165.9753497950908</v>
+        <v>999.8349142983113</v>
       </c>
       <c r="D35" t="n">
-        <v>165.9753497950908</v>
+        <v>999.8349142983113</v>
       </c>
       <c r="E35" t="n">
-        <v>165.9753497950908</v>
+        <v>999.8349142983113</v>
       </c>
       <c r="F35" t="n">
-        <v>165.9753497950908</v>
+        <v>588.8490095087038</v>
       </c>
       <c r="G35" t="n">
-        <v>165.9753497950908</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H35" t="n">
         <v>46.89499644164432</v>
@@ -6935,16 +6935,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M35" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N35" t="n">
         <v>1610.799342072557</v>
@@ -6959,28 +6959,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S35" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T35" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U35" t="n">
-        <v>1613.411982645667</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="V35" t="n">
-        <v>1282.349095302096</v>
+        <v>1759.900512623513</v>
       </c>
       <c r="W35" t="n">
-        <v>929.5804400319823</v>
+        <v>1759.900512623513</v>
       </c>
       <c r="X35" t="n">
-        <v>556.1146817709025</v>
+        <v>1386.434754362433</v>
       </c>
       <c r="Y35" t="n">
-        <v>165.9753497950908</v>
+        <v>1386.434754362433</v>
       </c>
     </row>
     <row r="36">
@@ -7014,13 +7014,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
-        <v>336.0641406922997</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L36" t="n">
-        <v>705.6153558007836</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M36" t="n">
         <v>974.4476973832902</v>
@@ -7038,22 +7038,22 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S36" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T36" t="n">
-        <v>1923.529830251457</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="U36" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V36" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W36" t="n">
-        <v>1460.197257673872</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X36" t="n">
         <v>1364.854855989795</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>194.8080900240374</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C37" t="n">
-        <v>194.8080900240374</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8080900240374</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J37" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K37" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L37" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N37" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O37" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S37" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T37" t="n">
-        <v>607.7685734363102</v>
+        <v>2327.741878547514</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363102</v>
+        <v>2038.560733293437</v>
       </c>
       <c r="V37" t="n">
-        <v>415.6006691675675</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="W37" t="n">
-        <v>415.6006691675675</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="X37" t="n">
-        <v>415.6006691675675</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.8080900240374</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>419.7617719102234</v>
+        <v>774.1232119888066</v>
       </c>
       <c r="C38" t="n">
-        <v>419.7617719102234</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D38" t="n">
-        <v>419.7617719102234</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E38" t="n">
         <v>46.89499644164432</v>
@@ -7172,13 +7172,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915535</v>
+        <v>137.045321891553</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275671</v>
       </c>
       <c r="L38" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M38" t="n">
         <v>1190.549107376118</v>
@@ -7199,25 +7199,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.1984047608</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U38" t="n">
-        <v>1867.1984047608</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="V38" t="n">
-        <v>1536.135517417229</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="W38" t="n">
-        <v>1183.366862147115</v>
+        <v>1112.775552894006</v>
       </c>
       <c r="X38" t="n">
-        <v>809.9011038860351</v>
+        <v>1112.775552894006</v>
       </c>
       <c r="Y38" t="n">
-        <v>419.7617719102234</v>
+        <v>1112.775552894006</v>
       </c>
     </row>
     <row r="39">
@@ -7263,25 +7263,25 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N39" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O39" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P39" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T39" t="n">
-        <v>2123.072528197426</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U39" t="n">
         <v>2062.095821155272</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2163.101357251976</v>
+        <v>184.4368278784832</v>
       </c>
       <c r="C40" t="n">
-        <v>1994.16517432407</v>
+        <v>184.4368278784832</v>
       </c>
       <c r="D40" t="n">
-        <v>1844.048534911734</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L40" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M40" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N40" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O40" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P40" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q40" t="n">
-        <v>2344.749822082216</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R40" t="n">
-        <v>2344.749822082216</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S40" t="n">
-        <v>2344.749822082216</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="T40" t="n">
-        <v>2344.749822082216</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="U40" t="n">
-        <v>2344.749822082216</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="V40" t="n">
-        <v>2344.749822082216</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="W40" t="n">
-        <v>2344.749822082216</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="X40" t="n">
-        <v>2344.749822082216</v>
+        <v>184.4368278784832</v>
       </c>
       <c r="Y40" t="n">
-        <v>2344.749822082216</v>
+        <v>184.4368278784832</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>960.8539546480588</v>
+        <v>1581.144731845325</v>
       </c>
       <c r="C41" t="n">
-        <v>960.8539546480588</v>
+        <v>1212.182214904913</v>
       </c>
       <c r="D41" t="n">
-        <v>960.8539546480588</v>
+        <v>853.9165162981626</v>
       </c>
       <c r="E41" t="n">
-        <v>960.8539546480588</v>
+        <v>468.1282636999184</v>
       </c>
       <c r="F41" t="n">
-        <v>960.8539546480588</v>
+        <v>57.1423589103108</v>
       </c>
       <c r="G41" t="n">
-        <v>542.5821871309436</v>
+        <v>57.1423589103108</v>
       </c>
       <c r="H41" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
@@ -7433,28 +7433,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S41" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T41" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U41" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V41" t="n">
-        <v>1334.319712909139</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W41" t="n">
-        <v>1334.319712909139</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X41" t="n">
-        <v>960.8539546480588</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y41" t="n">
-        <v>960.8539546480588</v>
+        <v>1581.144731845325</v>
       </c>
     </row>
     <row r="42">
@@ -7467,46 +7467,46 @@
         <v>622.1327649551154</v>
       </c>
       <c r="C42" t="n">
-        <v>506.2543262569397</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D42" t="n">
-        <v>506.2543262569397</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F42" t="n">
-        <v>359.7197682838247</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="G42" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H42" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922997</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L42" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N42" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O42" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P42" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>353.0840852304234</v>
+        <v>365.947818781887</v>
       </c>
       <c r="C43" t="n">
-        <v>353.0840852304234</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="D43" t="n">
-        <v>353.0840852304234</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E43" t="n">
-        <v>353.0840852304234</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F43" t="n">
-        <v>353.0840852304234</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G43" t="n">
-        <v>353.0840852304234</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I43" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
         <v>46.89499644164432</v>
@@ -7588,31 +7588,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q43" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R43" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S43" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="T43" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="U43" t="n">
-        <v>607.7685734363102</v>
+        <v>566.78431370192</v>
       </c>
       <c r="V43" t="n">
-        <v>353.0840852304234</v>
+        <v>566.78431370192</v>
       </c>
       <c r="W43" t="n">
-        <v>353.0840852304234</v>
+        <v>566.78431370192</v>
       </c>
       <c r="X43" t="n">
-        <v>353.0840852304234</v>
+        <v>566.78431370192</v>
       </c>
       <c r="Y43" t="n">
-        <v>353.0840852304234</v>
+        <v>547.5962836121267</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>539.4411080561706</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="C44" t="n">
-        <v>539.4411080561706</v>
+        <v>405.1606950483948</v>
       </c>
       <c r="D44" t="n">
-        <v>539.4411080561706</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E44" t="n">
-        <v>539.4411080561706</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F44" t="n">
-        <v>539.4411080561706</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G44" t="n">
-        <v>539.4411080561706</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>209.0924987302119</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7673,25 +7673,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.1984047608</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U44" t="n">
-        <v>1613.411982645667</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="V44" t="n">
-        <v>1282.349095302096</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="W44" t="n">
-        <v>929.5804400319823</v>
+        <v>1112.775552894006</v>
       </c>
       <c r="X44" t="n">
-        <v>929.5804400319823</v>
+        <v>795.3000270242065</v>
       </c>
       <c r="Y44" t="n">
-        <v>539.4411080561706</v>
+        <v>405.1606950483948</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C45" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D45" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E45" t="n">
-        <v>139.5078710072816</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F45" t="n">
-        <v>114.6107419524668</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G45" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H45" t="n">
         <v>114.6107419524668</v>
@@ -7728,49 +7728,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>336.0641406922997</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L45" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O45" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P45" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S45" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T45" t="n">
-        <v>1923.529830251457</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U45" t="n">
-        <v>1695.349365905614</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V45" t="n">
-        <v>1460.197257673872</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W45" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X45" t="n">
-        <v>998.1084007401373</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y45" t="n">
-        <v>790.3481019751835</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1942.852807764137</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C46" t="n">
-        <v>1942.852807764137</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D46" t="n">
-        <v>1942.852807764137</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E46" t="n">
-        <v>1942.852807764137</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F46" t="n">
-        <v>1942.852807764137</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G46" t="n">
-        <v>1942.852807764137</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K46" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L46" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M46" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N46" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O46" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>2197.537295970023</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V46" t="n">
-        <v>1942.852807764137</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="W46" t="n">
-        <v>1942.852807764137</v>
+        <v>63.90293997634646</v>
       </c>
       <c r="X46" t="n">
-        <v>1942.852807764137</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y46" t="n">
-        <v>1942.852807764137</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
   </sheetData>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>197.6503338623806</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,7 +8775,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>402.132053707116</v>
+        <v>309.7493254456951</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>415.7693643006697</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,10 +9252,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>476.3749567889587</v>
       </c>
       <c r="O18" t="n">
-        <v>330.2893092338458</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L21" t="n">
-        <v>307.2673352605755</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.08896698613911</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,16 +9726,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>200.8922269696948</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>462.7376461954051</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10428,7 +10428,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579837</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>57.08896698613911</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10671,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>249.1437329574062</v>
+        <v>309.7493254456951</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720732</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928321</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>262.7810435509598</v>
+        <v>415.7693643006697</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504499</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998488</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>330.2893092338458</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.575141931511382</v>
+        <v>404.7888645997086</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,7 +23321,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>81.31564129514271</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23346,10 +23346,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23382,13 +23382,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>5.910500182201289</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G13" t="n">
-        <v>156.9044066543622</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
         <v>214.5288682289405</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>24.68110656882175</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>155.2641063322884</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23619,22 +23619,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>130.2784035477363</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>156.9044066543622</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.6194376234954</v>
+        <v>133.1410289771301</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>166.7562404886457</v>
+        <v>264.8442918435686</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23820,16 +23820,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>53.38246657340298</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23874,10 +23874,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>157.3962949198572</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>150.4089569992727</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,19 +23935,19 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>37.69782020388197</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,25 +23969,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>122.6735173922533</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>15.2237040107965</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
@@ -24026,13 +24026,13 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24066,7 +24066,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,13 +24096,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
-        <v>197.5472709665096</v>
+        <v>136.4191830929966</v>
       </c>
       <c r="U21" t="n">
-        <v>165.5317197306519</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>109.4358648353958</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24142,10 +24142,10 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
-        <v>157.3867970498209</v>
+        <v>119.6340746536539</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24169,16 +24169,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R22" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2893338015361</v>
@@ -24190,10 +24190,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24212,13 +24212,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>132.739704180346</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>62.9053577622542</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24266,10 +24266,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24339,10 +24339,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>203.4577711487112</v>
       </c>
       <c r="V24" t="n">
-        <v>203.4577711487111</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>136.7095749173045</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24412,19 +24412,19 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>197.6910041295854</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,16 +24452,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24491,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>30.96077946991579</v>
+        <v>58.84631948403012</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24567,22 +24567,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>5.910500182201503</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>105.6924183331603</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>54.06789032788008</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>45.13868060939656</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J28" t="n">
         <v>54.86879163620181</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,13 +24692,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>296.4762287804041</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>164.9678571643668</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24765,7 +24765,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>120.4210546291173</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24777,7 +24777,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24810,7 +24810,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>53.38246657340289</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>125.6160688907843</v>
       </c>
       <c r="F31" t="n">
-        <v>61.42352734555726</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
         <v>139.0783256288916</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>116.2328662027614</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>51.67401021196815</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,16 +24974,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25002,7 +25002,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25044,7 +25044,7 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
-        <v>145.5946088442688</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25053,7 +25053,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>143.6184697512196</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25093,10 +25093,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25126,13 +25126,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>177.1092531657383</v>
       </c>
       <c r="V34" t="n">
-        <v>208.7815735241403</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25163,13 +25163,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>204.5997001382542</v>
       </c>
       <c r="H35" t="n">
-        <v>209.1555734127871</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>163.6851955497072</v>
@@ -25199,13 +25199,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25214,13 +25214,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25278,25 +25278,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>105.6924183331604</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>111.3840075362419</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25330,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
         <v>54.86879163620181</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
@@ -25363,13 +25363,13 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>208.78157352414</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>61.89141809777269</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,16 +25388,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>47.46802416733289</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>12.79226235836853</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25439,13 +25439,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25454,10 +25454,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25515,16 +25515,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>197.5472709665096</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U39" t="n">
-        <v>165.5317197306519</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>12.44905989574187</v>
       </c>
       <c r="E40" t="n">
-        <v>86.86339572062705</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25591,10 +25591,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>214.5288682289405</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,25 +25628,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>316.9002343887193</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,19 +25673,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>51.45091143097164</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25707,25 +25707,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>57.98884467712189</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>45.00739118865397</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,13 +25801,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>48.20671641402296</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>152.8143555761653</v>
@@ -25843,7 +25843,7 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>199.5885035631994</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25868,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,10 +25880,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>3.109668284025275</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>55.43033006736732</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25953,13 +25953,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25989,13 +25989,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>143.6184697512195</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
         <v>139.0783256288915</v>
@@ -26077,7 +26077,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>140.5489329504653</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>208.8717912896821</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>642912.1149390354</v>
+        <v>642912.1149390351</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>642912.1149390354</v>
+        <v>642912.1149390351</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>642912.1149390351</v>
+        <v>642912.114939035</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>642912.114939035</v>
+        <v>642912.1149390354</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>642912.1149390351</v>
+        <v>642912.1149390353</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>642912.1149390354</v>
+        <v>642912.1149390353</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>642912.114939035</v>
+        <v>642912.1149390351</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>642912.1149390351</v>
+        <v>642912.114939035</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>642912.1149390351</v>
+        <v>642912.1149390353</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>642912.1149390353</v>
+        <v>642912.1149390354</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>343688.92969348</v>
+        <v>343688.9296934799</v>
       </c>
       <c r="F2" t="n">
-        <v>343688.92969348</v>
+        <v>343688.9296934798</v>
       </c>
       <c r="G2" t="n">
         <v>343688.9296934798</v>
       </c>
       <c r="H2" t="n">
-        <v>343688.9296934801</v>
+        <v>343688.9296934798</v>
       </c>
       <c r="I2" t="n">
         <v>343688.92969348</v>
       </c>
       <c r="J2" t="n">
-        <v>343688.9296934798</v>
+        <v>343688.9296934799</v>
       </c>
       <c r="K2" t="n">
         <v>343688.92969348</v>
       </c>
       <c r="L2" t="n">
+        <v>343688.9296934798</v>
+      </c>
+      <c r="M2" t="n">
+        <v>343688.9296934799</v>
+      </c>
+      <c r="N2" t="n">
+        <v>343688.9296934798</v>
+      </c>
+      <c r="O2" t="n">
         <v>343688.92969348</v>
       </c>
-      <c r="M2" t="n">
-        <v>343688.92969348</v>
-      </c>
-      <c r="N2" t="n">
-        <v>343688.92969348</v>
-      </c>
-      <c r="O2" t="n">
-        <v>343688.9296934799</v>
-      </c>
       <c r="P2" t="n">
-        <v>343688.9296934799</v>
+        <v>343688.9296934798</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910622</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.533820076</v>
+        <v>86018.53382007605</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>337587.1321284243</v>
+        <v>337698.1101336324</v>
       </c>
       <c r="C4" t="n">
-        <v>337587.1321284242</v>
+        <v>337698.1101336325</v>
       </c>
       <c r="D4" t="n">
-        <v>337587.1321284242</v>
+        <v>337698.1101336325</v>
       </c>
       <c r="E4" t="n">
-        <v>61613.73009995345</v>
+        <v>61729.84584348264</v>
       </c>
       <c r="F4" t="n">
-        <v>61613.73009995344</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="G4" t="n">
-        <v>61613.73009995345</v>
+        <v>61729.84584348263</v>
       </c>
       <c r="H4" t="n">
-        <v>61613.73009995345</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="I4" t="n">
-        <v>61613.73009995344</v>
+        <v>61729.84584348263</v>
       </c>
       <c r="J4" t="n">
-        <v>61613.73009995344</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="K4" t="n">
-        <v>61613.73009995345</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="L4" t="n">
-        <v>61613.73009995345</v>
+        <v>61729.84584348263</v>
       </c>
       <c r="M4" t="n">
-        <v>61613.73009995345</v>
+        <v>61729.84584348264</v>
       </c>
       <c r="N4" t="n">
-        <v>61613.73009995344</v>
+        <v>61729.84584348261</v>
       </c>
       <c r="O4" t="n">
-        <v>61613.73009995343</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="P4" t="n">
-        <v>61613.73009995343</v>
+        <v>61729.84584348263</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67039.31798805046</v>
+        <v>66928.33998284244</v>
       </c>
       <c r="C6" t="n">
-        <v>147808.7495195983</v>
+        <v>147697.77151439</v>
       </c>
       <c r="D6" t="n">
-        <v>147808.7495195984</v>
+        <v>147697.77151439</v>
       </c>
       <c r="E6" t="n">
-        <v>-105758.8653108727</v>
+        <v>-105874.981054402</v>
       </c>
       <c r="F6" t="n">
-        <v>239853.4774680801</v>
+        <v>239737.3617245507</v>
       </c>
       <c r="G6" t="n">
-        <v>239853.4774680799</v>
+        <v>239737.3617245506</v>
       </c>
       <c r="H6" t="n">
-        <v>239853.4774680801</v>
+        <v>239737.3617245507</v>
       </c>
       <c r="I6" t="n">
-        <v>239853.47746808</v>
+        <v>239737.3617245508</v>
       </c>
       <c r="J6" t="n">
-        <v>176793.5348689736</v>
+        <v>176677.4191254445</v>
       </c>
       <c r="K6" t="n">
-        <v>239853.47746808</v>
+        <v>239737.3617245508</v>
       </c>
       <c r="L6" t="n">
-        <v>239853.47746808</v>
+        <v>239737.3617245507</v>
       </c>
       <c r="M6" t="n">
-        <v>153834.943648004</v>
+        <v>153718.8279044747</v>
       </c>
       <c r="N6" t="n">
-        <v>239853.47746808</v>
+        <v>239737.3617245507</v>
       </c>
       <c r="O6" t="n">
-        <v>239853.4774680799</v>
+        <v>239737.3617245508</v>
       </c>
       <c r="P6" t="n">
-        <v>239853.4774680799</v>
+        <v>239737.3617245507</v>
       </c>
     </row>
   </sheetData>
@@ -26753,7 +26753,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="I3" t="n">
         <v>301.9048087062786</v>
@@ -26768,7 +26768,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="M3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="N3" t="n">
         <v>301.9048087062787</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>172.5823093400838</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27436,13 +27436,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>179.6244982918735</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -27467,10 +27467,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27506,10 +27506,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>28.47567994102585</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>151.9103748565573</v>
       </c>
     </row>
     <row r="4">
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>57.07350359897357</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27594,7 +27594,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>192.6272392768849</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,19 +27625,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>317.9429279877956</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,31 +27658,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>48.28034918004796</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>142.4405395777382</v>
       </c>
     </row>
     <row r="7">
@@ -27831,13 +27831,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>95.24412853877561</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,31 +27850,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>175.1662893844119</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>149.1294050414824</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27944,16 +27944,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>14.00696723134699</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>104.074486113389</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28029,13 +28029,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28068,7 +28068,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>143.9416082994493</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -32467,7 +32467,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32488,22 +32488,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32558,25 +32558,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L22" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N22" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T22" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33652,7 +33652,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I35" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J35" t="n">
         <v>103.0102241525006</v>
@@ -33673,22 +33673,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P35" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q35" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R35" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S35" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T35" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H36" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I36" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J36" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K36" t="n">
         <v>104.8606541711232</v>
@@ -33743,25 +33743,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M36" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N36" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O36" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P36" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q36" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R36" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S36" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T36" t="n">
         <v>2.617457728311981</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H37" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I37" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J37" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K37" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L37" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M37" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N37" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O37" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P37" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q37" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R37" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S37" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T37" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34705,7 +34705,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>55.51629994036225</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>231.4844522093428</v>
@@ -35495,7 +35495,7 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M12" t="n">
-        <v>424.5361405300196</v>
+        <v>332.1534122685987</v>
       </c>
       <c r="N12" t="n">
         <v>516.8936174628016</v>
@@ -35507,7 +35507,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.0739155037669</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K15" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
@@ -35735,7 +35735,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
-        <v>516.8936174628016</v>
+        <v>453.3206074199177</v>
       </c>
       <c r="O15" t="n">
         <v>405.7701329255822</v>
@@ -35744,7 +35744,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>231.4844522093428</v>
@@ -35972,10 +35972,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>516.8936174628016</v>
+        <v>513.9261999082067</v>
       </c>
       <c r="O18" t="n">
-        <v>342.1971228826985</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P18" t="n">
         <v>308.4914891638518</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36133,13 +36133,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093428</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L21" t="n">
-        <v>309.7110456222515</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M21" t="n">
         <v>488.1091505729034</v>
@@ -36212,7 +36212,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P21" t="n">
         <v>308.4914891638518</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36294,7 +36294,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36446,16 +36446,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N24" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O24" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>308.4914891638518</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>60.60559248828883</v>
       </c>
       <c r="K27" t="n">
-        <v>231.4844522093428</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36683,7 +36683,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O27" t="n">
         <v>405.7701329255822</v>
@@ -36692,7 +36692,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K30" t="n">
-        <v>231.4844522093428</v>
+        <v>167.911442166459</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M30" t="n">
-        <v>485.1417330183086</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N30" t="n">
         <v>516.8936174628016</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37163,7 +37163,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K35" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L35" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M35" t="n">
         <v>432.2802359107712</v>
@@ -37318,13 +37318,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O35" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P35" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q35" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M36" t="n">
-        <v>271.5478197803097</v>
+        <v>332.1534122685987</v>
       </c>
       <c r="N36" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P36" t="n">
         <v>308.4914891638518</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L37" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M37" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N37" t="n">
         <v>127.4430518046842</v>
@@ -37479,7 +37479,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P37" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788754</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
@@ -37549,7 +37549,7 @@
         <v>373.423817067563</v>
       </c>
       <c r="M38" t="n">
-        <v>432.2802359107708</v>
+        <v>432.2802359107712</v>
       </c>
       <c r="N38" t="n">
         <v>424.4951865620588</v>
@@ -37631,7 +37631,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>300.3322866702078</v>
+        <v>453.3206074199177</v>
       </c>
       <c r="O39" t="n">
         <v>405.7701329255823</v>
@@ -37640,7 +37640,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>231.4844522093429</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37868,7 +37868,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255823</v>
@@ -37877,7 +37877,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>258.4411848848628</v>
       </c>
       <c r="L44" t="n">
-        <v>373.4238170675625</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M44" t="n">
         <v>432.2802359107712</v>
@@ -38096,7 +38096,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K45" t="n">
-        <v>231.4844522093429</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38108,13 +38108,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O45" t="n">
-        <v>342.1971228826985</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_7_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1357936.252967266</v>
+        <v>1390514.467482465</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584665</v>
+        <v>460545.8926584664</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.11007558</v>
+        <v>8768687.110075582</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>180.1159031720507</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -701,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>190.1066023865956</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -741,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -753,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>17.75862174607522</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>53.77232092074711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>190.1066023865956</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>55.66595177720879</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -1035,13 +1037,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>63.24215619956617</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1224,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.22847700514947</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1275,7 +1277,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>2.087181142002828</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>13.64898583655253</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1494,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>53.92880121529013</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
         <v>225.8986597023843</v>
@@ -1515,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>9.136888730009664</v>
       </c>
     </row>
     <row r="13">
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>36.48436605884934</v>
+        <v>36.48436605884923</v>
       </c>
       <c r="G13" t="n">
         <v>167.4465608509556</v>
@@ -1549,7 +1551,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.089049841944</v>
+        <v>164.5885763094247</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>172.4881521378465</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1695,7 +1697,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>136.6941370086349</v>
@@ -1734,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.450742642164</v>
       </c>
       <c r="T15" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>167.9289512464141</v>
       </c>
       <c r="T16" t="n">
-        <v>92.4784086463653</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>117.889549819912</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>344.6121853794182</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1926,13 +1928,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>87.08036771626159</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>136.6941370086349</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S18" t="n">
         <v>159.6212195484502</v>
@@ -1986,10 +1988,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>48.37669028362031</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>16.83786409935511</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>16.83786409935501</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>148.4614915389107</v>
+        <v>110.1595975863417</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006115</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2135,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2172,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749141</v>
+        <v>6.456834824088546</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T21" t="n">
-        <v>61.12808787351305</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
         <v>225.8986597023843</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>37.75272239616699</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288915</v>
+        <v>69.4305909747483</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2324,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>351.1836920796898</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>163.6851955497072</v>
@@ -2363,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>263.3949424079345</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>135.7839114894719</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2451,7 +2453,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
-        <v>22.44088855367314</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>54.44663919424258</v>
+        <v>43.03218749909144</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2561,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>64.41190922083888</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2615,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>290.3946492333829</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2643,7 +2645,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>81.82939690136185</v>
       </c>
       <c r="G27" t="n">
         <v>136.6941370086349</v>
@@ -2652,7 +2654,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,16 +2684,16 @@
         <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2719,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>122.3078802415591</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>77.50776027739583</v>
       </c>
     </row>
     <row r="29">
@@ -2792,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>149.8247756463487</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>86.28070072961441</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>9.136888730010115</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2877,16 +2879,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>37.22402582628369</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
         <v>67.03858805571426</v>
@@ -2937,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2950,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>43.26585203414595</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>20.81789375578485</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>362.4150396299758</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>15.53855816269036</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3153,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8986597023843</v>
+        <v>219.9881595201828</v>
       </c>
       <c r="V33" t="n">
-        <v>89.18211739820566</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3205,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0783256288916</v>
+        <v>43.03218749909109</v>
       </c>
       <c r="J34" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3241,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>109.1800806357979</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>209.4893497036898</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>172.225636691278</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,10 +3398,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
-        <v>120.206241369224</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3408,10 +3410,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>175.2545797368263</v>
       </c>
     </row>
     <row r="37">
@@ -3439,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>26.47903524663827</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.83786409935544</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.2658174961477</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3548,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>138.7600105720343</v>
       </c>
       <c r="U38" t="n">
         <v>251.2485578939812</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
         <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>188.4551676688977</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3661,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>136.1664131224705</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>135.8803768022634</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3703,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3718,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3749,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>313.976132115958</v>
       </c>
       <c r="H41" t="n">
-        <v>10.14488884397982</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3828,16 +3830,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>91.6867458199809</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>29.38391736390409</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>197.5472709665096</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3916,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>167.9289512464142</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.99614978889537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3989,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>208.1743182812904</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>314.3007706111017</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>135.8803768022634</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>16.83786409935511</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>285.1327311248648</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C2" t="n">
-        <v>285.1327311248648</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D2" t="n">
-        <v>41.68395448076474</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E2" t="n">
         <v>41.68395448076474</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>772.0302844130649</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>528.5815077689649</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>432.9682111954345</v>
+        <v>307.8574406365461</v>
       </c>
       <c r="C3" t="n">
-        <v>258.5151819143075</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D3" t="n">
-        <v>109.5807722530562</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E3" t="n">
-        <v>109.5807722530562</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F3" t="n">
-        <v>109.5807722530562</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G3" t="n">
-        <v>109.5807722530562</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>487.2836868729568</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>487.2836868729568</v>
+        <v>515.708940842079</v>
       </c>
       <c r="W3" t="n">
-        <v>487.2836868729568</v>
+        <v>515.708940842079</v>
       </c>
       <c r="X3" t="n">
-        <v>487.2836868729568</v>
+        <v>307.8574406365461</v>
       </c>
       <c r="Y3" t="n">
-        <v>432.9682111954345</v>
+        <v>307.8574406365461</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4531,7 +4533,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.68395448076474</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="C5" t="n">
-        <v>41.68395448076474</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="D5" t="n">
-        <v>41.68395448076474</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="E5" t="n">
         <v>41.68395448076474</v>
@@ -4601,7 +4603,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
         <v>720.6083788665362</v>
@@ -4610,7 +4612,7 @@
         <v>477.1596022224361</v>
       </c>
       <c r="Y5" t="n">
-        <v>233.7108255783361</v>
+        <v>285.1327311248648</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>907.8289213922435</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="U6" t="n">
-        <v>487.2836868729568</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V6" t="n">
-        <v>252.1315786412141</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W6" t="n">
-        <v>252.1315786412141</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X6" t="n">
-        <v>252.1315786412141</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>188.2506127830665</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
         <v>19.28114311021272</v>
@@ -4765,10 +4767,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4841,10 +4843,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X8" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="X8" t="n">
-        <v>477.1596022224361</v>
       </c>
       <c r="Y8" t="n">
         <v>477.1596022224361</v>
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>118.5018269537981</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4884,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W9" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X9" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4948,19 +4950,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5015,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1327.358309730192</v>
+        <v>1570.897369376658</v>
       </c>
       <c r="C11" t="n">
-        <v>958.3957927897804</v>
+        <v>1201.934852436247</v>
       </c>
       <c r="D11" t="n">
-        <v>600.13009418303</v>
+        <v>843.6691538294961</v>
       </c>
       <c r="E11" t="n">
-        <v>214.3418415847858</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L11" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244547</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N11" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O11" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q11" t="n">
         <v>2344.749822082216</v>
@@ -5072,19 +5074,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="U11" t="n">
-        <v>2090.963399967084</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V11" t="n">
-        <v>2090.963399967084</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W11" t="n">
-        <v>2090.963399967084</v>
+        <v>2330.96296770186</v>
       </c>
       <c r="X11" t="n">
-        <v>1717.497641706004</v>
+        <v>1957.49720944078</v>
       </c>
       <c r="Y11" t="n">
-        <v>1327.358309730192</v>
+        <v>1957.49720944078</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5120,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K12" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L12" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M12" t="n">
-        <v>974.4476973832902</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N12" t="n">
         <v>1486.172378671464</v>
@@ -5142,28 +5144,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2290.276285501115</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2290.276285501115</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T12" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U12" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>988.8792202047736</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="F13" t="n">
         <v>570.9156784273715</v>
@@ -5200,49 +5202,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L13" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M13" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N13" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O13" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1410.453767052119</v>
+        <v>571.4117822296319</v>
       </c>
       <c r="C14" t="n">
-        <v>1041.491250111708</v>
+        <v>571.4117822296319</v>
       </c>
       <c r="D14" t="n">
-        <v>1041.491250111708</v>
+        <v>213.1460836228813</v>
       </c>
       <c r="E14" t="n">
-        <v>1041.491250111708</v>
+        <v>213.1460836228813</v>
       </c>
       <c r="F14" t="n">
-        <v>630.5053453221001</v>
+        <v>213.1460836228813</v>
       </c>
       <c r="G14" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L14" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N14" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O14" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q14" t="n">
         <v>2344.749822082216</v>
@@ -5303,25 +5305,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S14" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T14" t="n">
-        <v>2344.749822082216</v>
+        <v>1941.57194985177</v>
       </c>
       <c r="U14" t="n">
-        <v>2344.749822082216</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V14" t="n">
-        <v>2170.519365377321</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="W14" t="n">
-        <v>2170.519365377321</v>
+        <v>1335.016872466523</v>
       </c>
       <c r="X14" t="n">
-        <v>1797.053607116241</v>
+        <v>961.5511142054436</v>
       </c>
       <c r="Y14" t="n">
-        <v>1797.053607116241</v>
+        <v>571.4117822296319</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>842.3446622316584</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>667.8916329505314</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>518.9572232892801</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="F15" t="n">
         <v>359.7197682838247</v>
@@ -5355,25 +5357,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050503</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K15" t="n">
         <v>336.0641406922996</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007836</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M15" t="n">
         <v>1188.843414867958</v>
       </c>
       <c r="N15" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156131</v>
       </c>
       <c r="O15" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P15" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
@@ -5382,25 +5384,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2344.749822082216</v>
+        <v>2343.284425473969</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.276285501115</v>
+        <v>2143.741727528</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1915.561263182157</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1680.409154950415</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1426.171798222213</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>1218.32029801668</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>1010.559999251726</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.3180182963936</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="C16" t="n">
-        <v>102.3180182963936</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="D16" t="n">
-        <v>102.3180182963936</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="E16" t="n">
-        <v>102.3180182963936</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="F16" t="n">
-        <v>102.3180182963936</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="G16" t="n">
-        <v>102.3180182963936</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="H16" t="n">
-        <v>102.3180182963936</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="I16" t="n">
         <v>102.3180182963936</v>
@@ -5437,49 +5439,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L16" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M16" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N16" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O16" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P16" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q16" t="n">
-        <v>566.78431370192</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R16" t="n">
-        <v>412.4263787765005</v>
+        <v>412.4263787765004</v>
       </c>
       <c r="S16" t="n">
-        <v>195.7305522826212</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="T16" t="n">
-        <v>102.3180182963936</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="U16" t="n">
-        <v>102.3180182963936</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="V16" t="n">
-        <v>102.3180182963936</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="W16" t="n">
-        <v>102.3180182963936</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="X16" t="n">
-        <v>102.3180182963936</v>
+        <v>242.8011754972942</v>
       </c>
       <c r="Y16" t="n">
-        <v>102.3180182963936</v>
+        <v>242.8011754972942</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.89499644164432</v>
+        <v>1219.917533497415</v>
       </c>
       <c r="C17" t="n">
-        <v>46.89499644164432</v>
+        <v>850.9550165570038</v>
       </c>
       <c r="D17" t="n">
-        <v>46.89499644164432</v>
+        <v>850.9550165570038</v>
       </c>
       <c r="E17" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F17" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G17" t="n">
         <v>46.89499644164432</v>
@@ -5513,16 +5515,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L17" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244548</v>
       </c>
       <c r="M17" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N17" t="n">
         <v>1610.799342072557</v>
@@ -5531,34 +5533,34 @@
         <v>1962.442083972113</v>
       </c>
       <c r="P17" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q17" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S17" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T17" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U17" t="n">
-        <v>1613.411982645667</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V17" t="n">
-        <v>1282.349095302096</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W17" t="n">
-        <v>929.5804400319823</v>
+        <v>1996.656705537349</v>
       </c>
       <c r="X17" t="n">
-        <v>556.1146817709025</v>
+        <v>1996.656705537349</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9753497950908</v>
+        <v>1606.517373561537</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C18" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="D18" t="n">
-        <v>665.4917812623953</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="E18" t="n">
-        <v>506.2543262569397</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="F18" t="n">
         <v>359.7197682838247</v>
@@ -5592,25 +5594,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K18" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L18" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M18" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N18" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O18" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P18" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
@@ -5628,16 +5630,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V18" t="n">
-        <v>1460.197257673872</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W18" t="n">
         <v>1205.95990094567</v>
       </c>
       <c r="X18" t="n">
-        <v>1157.094557224842</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y18" t="n">
-        <v>1157.094557224842</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63.90293997634646</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C19" t="n">
         <v>46.89499644164432</v>
@@ -5674,49 +5676,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K19" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L19" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N19" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O19" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P19" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q19" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R19" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S19" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T19" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U19" t="n">
-        <v>318.5874281822333</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="V19" t="n">
-        <v>63.90293997634646</v>
+        <v>63.90293997634635</v>
       </c>
       <c r="W19" t="n">
-        <v>63.90293997634646</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X19" t="n">
-        <v>63.90293997634646</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y19" t="n">
-        <v>63.90293997634646</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1640.221176477566</v>
+        <v>569.1532220255365</v>
       </c>
       <c r="C20" t="n">
-        <v>1271.258659537154</v>
+        <v>569.1532220255365</v>
       </c>
       <c r="D20" t="n">
-        <v>912.9929609304036</v>
+        <v>569.1532220255365</v>
       </c>
       <c r="E20" t="n">
-        <v>527.2047083321593</v>
+        <v>569.1532220255365</v>
       </c>
       <c r="F20" t="n">
-        <v>527.2047083321593</v>
+        <v>158.1673172359289</v>
       </c>
       <c r="G20" t="n">
-        <v>527.2047083321593</v>
+        <v>158.1673172359289</v>
       </c>
       <c r="H20" t="n">
-        <v>196.8560990062006</v>
+        <v>158.1673172359289</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
@@ -5753,7 +5755,7 @@
         <v>137.0453218915536</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275679</v>
+        <v>392.902094927568</v>
       </c>
       <c r="L20" t="n">
         <v>762.5916738244553</v>
@@ -5774,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S20" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T20" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U20" t="n">
-        <v>2344.749822082216</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="V20" t="n">
-        <v>2013.686934738646</v>
+        <v>1685.526967532542</v>
       </c>
       <c r="W20" t="n">
-        <v>2013.686934738646</v>
+        <v>1332.758312262428</v>
       </c>
       <c r="X20" t="n">
-        <v>1640.221176477566</v>
+        <v>959.2925540013482</v>
       </c>
       <c r="Y20" t="n">
-        <v>1640.221176477566</v>
+        <v>569.1532220255365</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>921.1634746939509</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C21" t="n">
-        <v>746.7104454128239</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D21" t="n">
-        <v>597.7760357515726</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E21" t="n">
-        <v>438.5385807461172</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F21" t="n">
-        <v>292.0040227730022</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G21" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H21" t="n">
         <v>46.89499644164432</v>
@@ -5829,13 +5831,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K21" t="n">
-        <v>273.1268607498447</v>
+        <v>273.1268607498454</v>
       </c>
       <c r="L21" t="n">
-        <v>642.6780758583286</v>
+        <v>642.6780758583292</v>
       </c>
       <c r="M21" t="n">
         <v>1125.906134925503</v>
@@ -5853,28 +5855,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2284.306083296871</v>
+        <v>2338.227766704349</v>
       </c>
       <c r="S21" t="n">
-        <v>2284.306083296871</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T21" t="n">
-        <v>2222.560539990292</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U21" t="n">
-        <v>1994.38007564445</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V21" t="n">
-        <v>1759.227967412707</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W21" t="n">
-        <v>1504.990610684506</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X21" t="n">
-        <v>1297.139110478973</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y21" t="n">
-        <v>1089.378811714019</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>225.5122166689762</v>
+        <v>426.1201086060702</v>
       </c>
       <c r="C22" t="n">
-        <v>225.5122166689762</v>
+        <v>426.1201086060702</v>
       </c>
       <c r="D22" t="n">
-        <v>225.5122166689762</v>
+        <v>276.0034691937344</v>
       </c>
       <c r="E22" t="n">
-        <v>225.5122166689762</v>
+        <v>276.0034691937344</v>
       </c>
       <c r="F22" t="n">
-        <v>225.5122166689762</v>
+        <v>276.0034691937344</v>
       </c>
       <c r="G22" t="n">
-        <v>225.5122166689762</v>
+        <v>276.0034691937344</v>
       </c>
       <c r="H22" t="n">
-        <v>187.3781536425449</v>
+        <v>117.0269065171477</v>
       </c>
       <c r="I22" t="n">
         <v>46.89499644164432</v>
@@ -5911,49 +5913,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702973</v>
       </c>
       <c r="L22" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362073</v>
       </c>
       <c r="N22" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228446</v>
       </c>
       <c r="O22" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496712</v>
       </c>
       <c r="P22" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="Q22" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="R22" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="S22" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="T22" t="n">
-        <v>225.5122166689762</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="U22" t="n">
-        <v>225.5122166689762</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="V22" t="n">
-        <v>225.5122166689762</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="W22" t="n">
-        <v>225.5122166689762</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="X22" t="n">
-        <v>225.5122166689762</v>
+        <v>607.7685734363099</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.5122166689762</v>
+        <v>607.7685734363099</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>897.3131892316403</v>
+        <v>1016.293597920344</v>
       </c>
       <c r="C23" t="n">
-        <v>897.3131892316403</v>
+        <v>1016.293597920344</v>
       </c>
       <c r="D23" t="n">
-        <v>897.3131892316403</v>
+        <v>1016.293597920344</v>
       </c>
       <c r="E23" t="n">
-        <v>897.3131892316403</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="F23" t="n">
-        <v>897.3131892316403</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G23" t="n">
-        <v>542.5821871309436</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H23" t="n">
         <v>212.2335778049849</v>
@@ -5993,10 +5995,10 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M23" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N23" t="n">
         <v>1610.799342072557</v>
@@ -6008,31 +6010,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q23" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082217</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T23" t="n">
-        <v>2344.749822082217</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U23" t="n">
-        <v>2344.749822082217</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V23" t="n">
-        <v>2013.686934738646</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W23" t="n">
-        <v>1660.918279468532</v>
+        <v>1016.293597920344</v>
       </c>
       <c r="X23" t="n">
-        <v>1287.452521207452</v>
+        <v>1016.293597920344</v>
       </c>
       <c r="Y23" t="n">
-        <v>897.3131892316403</v>
+        <v>1016.293597920344</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.8792202047736</v>
+        <v>951.5816570746283</v>
       </c>
       <c r="C24" t="n">
         <v>814.4261909236466</v>
@@ -6066,25 +6068,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>336.0641406922996</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L24" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O24" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P24" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
@@ -6099,19 +6101,19 @@
         <v>2084.763385350902</v>
       </c>
       <c r="U24" t="n">
-        <v>2062.095821155272</v>
+        <v>1856.582921005059</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.94371292353</v>
+        <v>1621.430812773317</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.706356195328</v>
+        <v>1367.193456045115</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.854855989795</v>
+        <v>1159.341955839582</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.094557224842</v>
+        <v>951.5816570746283</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K25" t="n">
-        <v>87.46721626702976</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L25" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N25" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O25" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P25" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q25" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R25" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S25" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T25" t="n">
-        <v>391.0727469424309</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U25" t="n">
-        <v>101.891601688354</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V25" t="n">
-        <v>46.89499644164432</v>
+        <v>2301.282966022528</v>
       </c>
       <c r="W25" t="n">
-        <v>46.89499644164432</v>
+        <v>2011.865795985567</v>
       </c>
       <c r="X25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>826.8434181716636</v>
+        <v>966.9843473436408</v>
       </c>
       <c r="C26" t="n">
-        <v>457.8809012312519</v>
+        <v>598.0218304032292</v>
       </c>
       <c r="D26" t="n">
-        <v>457.8809012312519</v>
+        <v>598.0218304032292</v>
       </c>
       <c r="E26" t="n">
-        <v>457.8809012312519</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="F26" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G26" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H26" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I26" t="n">
         <v>46.89499644164432</v>
@@ -6248,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2270.376276991246</v>
+        <v>2279.687287515712</v>
       </c>
       <c r="S26" t="n">
-        <v>2270.376276991246</v>
+        <v>2096.492174653688</v>
       </c>
       <c r="T26" t="n">
-        <v>2270.376276991246</v>
+        <v>2096.492174653688</v>
       </c>
       <c r="U26" t="n">
-        <v>2270.376276991246</v>
+        <v>2096.492174653688</v>
       </c>
       <c r="V26" t="n">
-        <v>2270.376276991246</v>
+        <v>2096.492174653688</v>
       </c>
       <c r="W26" t="n">
-        <v>1977.048348472677</v>
+        <v>1743.723519383574</v>
       </c>
       <c r="X26" t="n">
-        <v>1603.582590211597</v>
+        <v>1743.723519383574</v>
       </c>
       <c r="Y26" t="n">
-        <v>1213.443258235785</v>
+        <v>1353.584187407763</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.8792202047736</v>
+        <v>857.284873186858</v>
       </c>
       <c r="C27" t="n">
-        <v>814.4261909236466</v>
+        <v>682.831843905731</v>
       </c>
       <c r="D27" t="n">
-        <v>665.4917812623953</v>
+        <v>533.8974342444798</v>
       </c>
       <c r="E27" t="n">
-        <v>506.2543262569397</v>
+        <v>374.6599792390243</v>
       </c>
       <c r="F27" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G27" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H27" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L27" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M27" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N27" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O27" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P27" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
@@ -6330,25 +6332,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S27" t="n">
-        <v>2284.306083296871</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T27" t="n">
-        <v>2284.306083296871</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U27" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.94371292353</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.706356195328</v>
+        <v>1441.112009177413</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.854855989795</v>
+        <v>1233.26050897188</v>
       </c>
       <c r="Y27" t="n">
-        <v>1157.094557224842</v>
+        <v>1025.500210206926</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C28" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D28" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>170.4383098169565</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>170.4383098169565</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
         <v>46.89499644164432</v>
@@ -6412,22 +6414,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U28" t="n">
-        <v>607.7685734363102</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V28" t="n">
-        <v>607.7685734363102</v>
+        <v>125.1856633885088</v>
       </c>
       <c r="W28" t="n">
-        <v>318.3514033993496</v>
+        <v>125.1856633885088</v>
       </c>
       <c r="X28" t="n">
-        <v>318.3514033993496</v>
+        <v>125.1856633885088</v>
       </c>
       <c r="Y28" t="n">
-        <v>318.3514033993496</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>630.5053453221001</v>
+        <v>925.4613692073406</v>
       </c>
       <c r="C29" t="n">
-        <v>630.5053453221001</v>
+        <v>556.4988522669289</v>
       </c>
       <c r="D29" t="n">
-        <v>630.5053453221001</v>
+        <v>198.2331536601784</v>
       </c>
       <c r="E29" t="n">
-        <v>630.5053453221001</v>
+        <v>198.2331536601784</v>
       </c>
       <c r="F29" t="n">
-        <v>630.5053453221001</v>
+        <v>198.2331536601784</v>
       </c>
       <c r="G29" t="n">
-        <v>212.2335778049849</v>
+        <v>198.2331536601784</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2335778049849</v>
+        <v>198.2331536601784</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L29" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N29" t="n">
         <v>1610.799342072557</v>
@@ -6482,31 +6484,31 @@
         <v>2224.886645733487</v>
       </c>
       <c r="Q29" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2344.749822082217</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S29" t="n">
-        <v>2161.554709220193</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T29" t="n">
-        <v>2161.554709220193</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U29" t="n">
-        <v>2074.402486260986</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="V29" t="n">
-        <v>1743.339598917416</v>
+        <v>1685.526967532542</v>
       </c>
       <c r="W29" t="n">
-        <v>1390.570943647302</v>
+        <v>1685.526967532542</v>
       </c>
       <c r="X29" t="n">
-        <v>1017.105185386222</v>
+        <v>1312.061209271462</v>
       </c>
       <c r="Y29" t="n">
-        <v>1017.105185386222</v>
+        <v>1312.061209271462</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C30" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D30" t="n">
-        <v>298.7453260127371</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E30" t="n">
-        <v>261.1452999255819</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F30" t="n">
-        <v>114.6107419524668</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G30" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H30" t="n">
         <v>114.6107419524668</v>
@@ -6540,25 +6542,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L30" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M30" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N30" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O30" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P30" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
@@ -6585,7 +6587,7 @@
         <v>998.1084007401373</v>
       </c>
       <c r="Y30" t="n">
-        <v>790.3481019751835</v>
+        <v>998.1084007401373</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2123.957242938686</v>
+        <v>90.597877284216</v>
       </c>
       <c r="C31" t="n">
-        <v>1955.021060010779</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D31" t="n">
-        <v>1804.904420598444</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L31" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M31" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N31" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O31" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>2344.749822082216</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V31" t="n">
-        <v>2344.749822082216</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="W31" t="n">
-        <v>2344.749822082216</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="X31" t="n">
-        <v>2344.749822082216</v>
+        <v>90.597877284216</v>
       </c>
       <c r="Y31" t="n">
-        <v>2123.957242938686</v>
+        <v>90.597877284216</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1568.010650042283</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="C32" t="n">
-        <v>1568.010650042283</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="D32" t="n">
-        <v>1209.744951435532</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="E32" t="n">
-        <v>823.9566988372881</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F32" t="n">
-        <v>412.9707940476805</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G32" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L32" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6725,25 +6727,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S32" t="n">
-        <v>2344.749822082216</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T32" t="n">
-        <v>2344.749822082216</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U32" t="n">
-        <v>2344.749822082216</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V32" t="n">
-        <v>2344.749822082216</v>
+        <v>1672.090014440991</v>
       </c>
       <c r="W32" t="n">
-        <v>2344.749822082216</v>
+        <v>1319.321359170877</v>
       </c>
       <c r="X32" t="n">
-        <v>2344.749822082216</v>
+        <v>1319.321359170877</v>
       </c>
       <c r="Y32" t="n">
-        <v>1954.610490106405</v>
+        <v>929.1820271950653</v>
       </c>
     </row>
     <row r="33">
@@ -6777,40 +6779,40 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K33" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L33" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M33" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N33" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O33" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P33" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S33" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T33" t="n">
-        <v>2145.207124136247</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="U33" t="n">
-        <v>1917.026659790404</v>
+        <v>2062.095821155272</v>
       </c>
       <c r="V33" t="n">
         <v>1826.94371292353</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>242.8011754972942</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="C34" t="n">
-        <v>242.8011754972942</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="D34" t="n">
-        <v>242.8011754972942</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="E34" t="n">
-        <v>242.8011754972942</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="F34" t="n">
-        <v>242.8011754972942</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="G34" t="n">
-        <v>242.8011754972942</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="H34" t="n">
-        <v>242.8011754972942</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J34" t="n">
         <v>46.89499644164432</v>
@@ -6889,19 +6891,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>497.4856637031811</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V34" t="n">
-        <v>242.8011754972942</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W34" t="n">
-        <v>242.8011754972942</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X34" t="n">
-        <v>242.8011754972942</v>
+        <v>90.36185250133229</v>
       </c>
       <c r="Y34" t="n">
-        <v>242.8011754972942</v>
+        <v>90.36185250133229</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>999.8349142983113</v>
+        <v>415.857513382056</v>
       </c>
       <c r="C35" t="n">
-        <v>999.8349142983113</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D35" t="n">
-        <v>999.8349142983113</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E35" t="n">
-        <v>999.8349142983113</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F35" t="n">
-        <v>588.8490095087038</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G35" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H35" t="n">
         <v>46.89499644164432</v>
@@ -6935,10 +6937,10 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L35" t="n">
         <v>762.5916738244549</v>
@@ -6959,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T35" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622824</v>
       </c>
       <c r="U35" t="n">
-        <v>2090.963399967084</v>
+        <v>1876.428228035674</v>
       </c>
       <c r="V35" t="n">
-        <v>1759.900512623513</v>
+        <v>1545.365340692104</v>
       </c>
       <c r="W35" t="n">
-        <v>1759.900512623513</v>
+        <v>1192.59668542199</v>
       </c>
       <c r="X35" t="n">
-        <v>1386.434754362433</v>
+        <v>1192.59668542199</v>
       </c>
       <c r="Y35" t="n">
-        <v>1386.434754362433</v>
+        <v>802.4573534461779</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.8792202047736</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C36" t="n">
-        <v>814.4261909236466</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D36" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E36" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F36" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G36" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H36" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L36" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M36" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N36" t="n">
         <v>1486.172378671464</v>
@@ -7044,22 +7046,22 @@
         <v>2183.516266982771</v>
       </c>
       <c r="T36" t="n">
-        <v>2183.516266982771</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U36" t="n">
-        <v>2062.095821155272</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.94371292353</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.854855989795</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.094557224842</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1783.87624508755</v>
+        <v>232.6180593673606</v>
       </c>
       <c r="C37" t="n">
-        <v>1783.87624508755</v>
+        <v>232.6180593673606</v>
       </c>
       <c r="D37" t="n">
-        <v>1783.87624508755</v>
+        <v>232.6180593673606</v>
       </c>
       <c r="E37" t="n">
-        <v>1783.87624508755</v>
+        <v>232.6180593673606</v>
       </c>
       <c r="F37" t="n">
-        <v>1783.87624508755</v>
+        <v>232.6180593673606</v>
       </c>
       <c r="G37" t="n">
-        <v>1783.87624508755</v>
+        <v>232.6180593673606</v>
       </c>
       <c r="H37" t="n">
-        <v>1783.87624508755</v>
+        <v>73.64149669077389</v>
       </c>
       <c r="I37" t="n">
-        <v>1783.87624508755</v>
+        <v>73.64149669077389</v>
       </c>
       <c r="J37" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K37" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L37" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M37" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N37" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O37" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q37" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R37" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="S37" t="n">
-        <v>2344.749822082216</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="T37" t="n">
-        <v>2327.741878547514</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="U37" t="n">
-        <v>2038.560733293437</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="V37" t="n">
-        <v>1783.87624508755</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="W37" t="n">
-        <v>1783.87624508755</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="X37" t="n">
-        <v>1783.87624508755</v>
+        <v>453.4106385108907</v>
       </c>
       <c r="Y37" t="n">
-        <v>1783.87624508755</v>
+        <v>232.6180593673606</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>774.1232119888066</v>
+        <v>415.857513382056</v>
       </c>
       <c r="C38" t="n">
-        <v>405.1606950483948</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D38" t="n">
         <v>46.89499644164432</v>
@@ -7172,13 +7174,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.045321891553</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K38" t="n">
-        <v>392.9020949275671</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L38" t="n">
-        <v>762.5916738244546</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M38" t="n">
         <v>1190.549107376118</v>
@@ -7202,22 +7204,22 @@
         <v>2270.376276991246</v>
       </c>
       <c r="T38" t="n">
-        <v>2050.393517622824</v>
+        <v>2130.214650150807</v>
       </c>
       <c r="U38" t="n">
-        <v>1796.607095507691</v>
+        <v>1876.428228035674</v>
       </c>
       <c r="V38" t="n">
-        <v>1465.54420816412</v>
+        <v>1545.365340692104</v>
       </c>
       <c r="W38" t="n">
-        <v>1112.775552894006</v>
+        <v>1192.59668542199</v>
       </c>
       <c r="X38" t="n">
-        <v>1112.775552894006</v>
+        <v>1192.59668542199</v>
       </c>
       <c r="Y38" t="n">
-        <v>1112.775552894006</v>
+        <v>802.4573534461779</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.8792202047736</v>
+        <v>921.1634746939509</v>
       </c>
       <c r="C39" t="n">
-        <v>814.4261909236466</v>
+        <v>746.7104454128239</v>
       </c>
       <c r="D39" t="n">
-        <v>665.4917812623953</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E39" t="n">
-        <v>506.2543262569397</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F39" t="n">
-        <v>359.7197682838247</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G39" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H39" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
@@ -7254,49 +7256,49 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K39" t="n">
-        <v>336.0641406922997</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L39" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N39" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O39" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P39" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S39" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T39" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U39" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.94371292353</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.706356195328</v>
+        <v>1504.990610684506</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.854855989795</v>
+        <v>1297.139110478973</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.094557224842</v>
+        <v>1089.378811714019</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>184.4368278784832</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="C40" t="n">
-        <v>184.4368278784832</v>
+        <v>184.1479023025165</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>184.1479023025165</v>
       </c>
       <c r="E40" t="n">
         <v>46.89499644164432</v>
@@ -7333,7 +7335,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L40" t="n">
         <v>194.9121237200978</v>
@@ -7351,31 +7353,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q40" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R40" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S40" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T40" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U40" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V40" t="n">
-        <v>412.4263787765005</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="W40" t="n">
-        <v>412.4263787765005</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="X40" t="n">
-        <v>184.4368278784832</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="Y40" t="n">
-        <v>184.4368278784832</v>
+        <v>353.0840852304234</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1581.144731845325</v>
+        <v>1477.059072784988</v>
       </c>
       <c r="C41" t="n">
-        <v>1212.182214904913</v>
+        <v>1108.096555844576</v>
       </c>
       <c r="D41" t="n">
-        <v>853.9165162981626</v>
+        <v>749.830857237826</v>
       </c>
       <c r="E41" t="n">
-        <v>468.1282636999184</v>
+        <v>364.0426046395817</v>
       </c>
       <c r="F41" t="n">
-        <v>57.1423589103108</v>
+        <v>364.0426046395817</v>
       </c>
       <c r="G41" t="n">
-        <v>57.1423589103108</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H41" t="n">
         <v>46.89499644164432</v>
@@ -7409,13 +7411,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L41" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M41" t="n">
         <v>1190.549107376119</v>
@@ -7433,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S41" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T41" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U41" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V41" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="X41" t="n">
-        <v>1971.284063821136</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="Y41" t="n">
-        <v>1581.144731845325</v>
+        <v>1477.059072784988</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>622.1327649551154</v>
+        <v>843.8100588399052</v>
       </c>
       <c r="C42" t="n">
-        <v>447.6797356739884</v>
+        <v>669.3570295587782</v>
       </c>
       <c r="D42" t="n">
-        <v>298.7453260127371</v>
+        <v>520.4226198975269</v>
       </c>
       <c r="E42" t="n">
-        <v>139.5078710072816</v>
+        <v>361.1851648920714</v>
       </c>
       <c r="F42" t="n">
-        <v>139.5078710072816</v>
+        <v>214.6506069189564</v>
       </c>
       <c r="G42" t="n">
-        <v>46.89499644164432</v>
+        <v>76.57572105164846</v>
       </c>
       <c r="H42" t="n">
-        <v>46.89499644164432</v>
+        <v>76.57572105164846</v>
       </c>
       <c r="I42" t="n">
         <v>46.89499644164432</v>
@@ -7512,28 +7514,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2123.072528197426</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T42" t="n">
-        <v>1923.529830251457</v>
+        <v>2145.207124136247</v>
       </c>
       <c r="U42" t="n">
-        <v>1695.349365905614</v>
+        <v>1917.026659790404</v>
       </c>
       <c r="V42" t="n">
-        <v>1460.197257673872</v>
+        <v>1681.874551558662</v>
       </c>
       <c r="W42" t="n">
-        <v>1205.95990094567</v>
+        <v>1427.63719483046</v>
       </c>
       <c r="X42" t="n">
-        <v>998.1084007401373</v>
+        <v>1219.785694624927</v>
       </c>
       <c r="Y42" t="n">
-        <v>790.3481019751835</v>
+        <v>1012.025395859973</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>365.947818781887</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="C43" t="n">
-        <v>197.0116358539801</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="D43" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="E43" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="F43" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="H43" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="I43" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="J43" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L43" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N43" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O43" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P43" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q43" t="n">
-        <v>566.78431370192</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="R43" t="n">
-        <v>566.78431370192</v>
+        <v>2149.407627422406</v>
       </c>
       <c r="S43" t="n">
-        <v>566.78431370192</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="T43" t="n">
-        <v>566.78431370192</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="U43" t="n">
-        <v>566.78431370192</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="V43" t="n">
-        <v>566.78431370192</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="W43" t="n">
-        <v>566.78431370192</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="X43" t="n">
-        <v>566.78431370192</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="Y43" t="n">
-        <v>547.5962836121267</v>
+        <v>1979.7824241432</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.1606950483948</v>
+        <v>1568.010650042283</v>
       </c>
       <c r="C44" t="n">
-        <v>405.1606950483948</v>
+        <v>1199.048133101871</v>
       </c>
       <c r="D44" t="n">
-        <v>46.89499644164432</v>
+        <v>840.7824344951207</v>
       </c>
       <c r="E44" t="n">
-        <v>46.89499644164432</v>
+        <v>840.7824344951207</v>
       </c>
       <c r="F44" t="n">
-        <v>46.89499644164432</v>
+        <v>840.7824344951207</v>
       </c>
       <c r="G44" t="n">
-        <v>46.89499644164432</v>
+        <v>422.5106669780055</v>
       </c>
       <c r="H44" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L44" t="n">
-        <v>762.5916738244553</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M44" t="n">
         <v>1190.549107376119</v>
@@ -7670,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T44" t="n">
-        <v>2050.393517622824</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U44" t="n">
-        <v>1796.607095507691</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V44" t="n">
-        <v>1465.54420816412</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W44" t="n">
-        <v>1112.775552894006</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X44" t="n">
-        <v>795.3000270242065</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Y44" t="n">
-        <v>405.1606950483948</v>
+        <v>1954.610490106405</v>
       </c>
     </row>
     <row r="45">
@@ -7728,16 +7730,16 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L45" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M45" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N45" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O45" t="n">
         <v>1887.88481026779</v>
@@ -7780,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.89499644164432</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="C46" t="n">
         <v>46.89499644164432</v>
@@ -7831,25 +7833,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>607.7685734363102</v>
+        <v>470.5156675754381</v>
       </c>
       <c r="T46" t="n">
-        <v>607.7685734363102</v>
+        <v>470.5156675754381</v>
       </c>
       <c r="U46" t="n">
-        <v>318.5874281822333</v>
+        <v>470.5156675754381</v>
       </c>
       <c r="V46" t="n">
-        <v>63.90293997634646</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="W46" t="n">
-        <v>63.90293997634646</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="X46" t="n">
-        <v>46.89499644164432</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.89499644164432</v>
+        <v>215.8311793695513</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8073,7 +8075,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8766,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998484</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>309.7493254456951</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9015,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841357</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>476.3749567889587</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212003</v>
       </c>
       <c r="K21" t="n">
-        <v>200.8922269696948</v>
+        <v>261.4978194579844</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.0889669861391</v>
+        <v>57.08896698613916</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9732,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
-        <v>200.8922269696948</v>
+        <v>108.5094987082738</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K30" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>323.3866360392488</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>261.4978194579837</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10443,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>309.7493254456951</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599042</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599042</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>47.90390621998488</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,7 +11390,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841359</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>404.7888645997086</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>414.089049841944</v>
@@ -23276,7 +23278,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S11" t="n">
         <v>181.3631617334038</v>
@@ -23312,19 +23314,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>335.5919828808605</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23382,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>5.910500182201289</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23403,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>196.5458070472947</v>
       </c>
     </row>
     <row r="13">
@@ -23425,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>108.9366819640819</v>
+        <v>108.936681964082</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>249.5004735325193</v>
       </c>
       <c r="H14" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>155.2641063322884</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23583,7 +23585,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23619,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>158.1704769062862</v>
       </c>
       <c r="T15" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>46.59991698252639</v>
       </c>
       <c r="T16" t="n">
-        <v>133.1410289771301</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
         <v>286.2893338015361</v>
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>264.8442918435686</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>327.0451232326991</v>
@@ -23777,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>4.628783337994776</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23814,13 +23816,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>60.36469784837716</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23874,10 +23876,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>157.3962949198572</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>150.4089569992727</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23911,7 +23913,7 @@
         <v>139.0783256288916</v>
       </c>
       <c r="J19" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.57441713704631</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R19" t="n">
         <v>152.8143555761653</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>269.685134237236</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,25 +23971,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>15.2237040107965</v>
+        <v>53.52559796336546</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
@@ -24023,19 +24025,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24060,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>53.38246657340289</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>136.4191830929966</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,13 +24144,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
-        <v>119.6340746536539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>69.64773465414328</v>
       </c>
       <c r="J22" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620183</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704633</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
         <v>286.2893338015361</v>
@@ -24212,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>62.9053577622542</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>85.84602630947848</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>36.92458749884383</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24339,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>203.4577711487112</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24412,22 +24414,22 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>197.6910041295854</v>
+        <v>209.1054558247366</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24449,10 +24451,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>414.089049841944</v>
@@ -24461,7 +24463,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>9.217900419222246</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.7829317747374</v>
@@ -24503,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>58.84631948403012</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24531,7 +24533,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>63.23981549202203</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24540,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,16 +24572,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24607,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>45.13868060939656</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
         <v>157.3867970498209</v>
@@ -24652,22 +24654,22 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>141.0768930746989</v>
       </c>
     </row>
     <row r="29">
@@ -24680,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>13.86041990335843</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>164.9678571643668</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>157.3962949198572</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24765,16 +24767,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>120.4210546291173</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24838,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>123.9809690644819</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>125.6160688907843</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24892,7 +24894,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24920,22 +24922,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>51.67401021196815</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,19 +24967,19 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>312.2137003074445</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>5.910500182201503</v>
       </c>
       <c r="V33" t="n">
-        <v>143.6184697512196</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25093,10 +25095,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.04613812980048</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25129,16 +25131,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>177.1092531657383</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>204.5997001382542</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
         <v>163.6851955497072</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>79.02292120270317</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25251,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25284,10 +25286,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>105.6924183331604</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25296,10 +25298,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>30.42811604047807</v>
       </c>
     </row>
     <row r="37">
@@ -25327,13 +25329,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
-        <v>54.86879163620181</v>
+        <v>28.38975638956354</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R37" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>208.78157352414</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.46802416733289</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25442,7 +25444,7 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>79.02292120270317</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25488,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>63.23981549202188</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>12.44905989574187</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>10.55358584430576</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25569,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
         <v>54.86879163620181</v>
@@ -25591,10 +25593,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
         <v>214.5288682289405</v>
@@ -25606,13 +25608,13 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25637,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>100.1129177259859</v>
       </c>
       <c r="H41" t="n">
-        <v>316.9002343887193</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
         <v>163.6851955497072</v>
@@ -25673,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2485578939812</v>
@@ -25691,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25716,16 +25718,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>45.00739118865397</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
-        <v>67.03858805571424</v>
+        <v>37.65467069181015</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25804,10 +25806,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>214.5288682289405</v>
+        <v>46.59991698252631</v>
       </c>
       <c r="T43" t="n">
         <v>225.6194376234954</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>199.5885035631994</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>118.8708049514087</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>55.43033006736732</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26071,13 +26073,13 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
-        <v>214.5288682289405</v>
+        <v>78.64849142667711</v>
       </c>
       <c r="T46" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>208.8717912896821</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>642912.1149390351</v>
+        <v>642912.1149390354</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>642912.1149390351</v>
+        <v>642912.1149390354</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>642912.1149390354</v>
+        <v>642912.1149390351</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>642912.1149390353</v>
+        <v>642912.114939035</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>642912.1149390353</v>
+        <v>642912.1149390351</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>642912.114939035</v>
+        <v>642912.1149390353</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>642912.1149390353</v>
+        <v>642912.114939035</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>642912.1149390351</v>
+        <v>642912.114939035</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117842</v>
@@ -26326,22 +26328,22 @@
         <v>343688.9296934798</v>
       </c>
       <c r="G2" t="n">
-        <v>343688.9296934798</v>
+        <v>343688.92969348</v>
       </c>
       <c r="H2" t="n">
         <v>343688.9296934798</v>
       </c>
       <c r="I2" t="n">
-        <v>343688.92969348</v>
+        <v>343688.9296934798</v>
       </c>
       <c r="J2" t="n">
-        <v>343688.9296934799</v>
+        <v>343688.9296934802</v>
       </c>
       <c r="K2" t="n">
         <v>343688.92969348</v>
       </c>
       <c r="L2" t="n">
-        <v>343688.9296934798</v>
+        <v>343688.9296934801</v>
       </c>
       <c r="M2" t="n">
         <v>343688.9296934799</v>
@@ -26350,10 +26352,10 @@
         <v>343688.9296934798</v>
       </c>
       <c r="O2" t="n">
+        <v>343688.9296934798</v>
+      </c>
+      <c r="P2" t="n">
         <v>343688.92969348</v>
-      </c>
-      <c r="P2" t="n">
-        <v>343688.9296934798</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>345612.3427789527</v>
+        <v>345612.3427789526</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910622</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007605</v>
+        <v>86018.53382007597</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>337698.1101336324</v>
       </c>
       <c r="C4" t="n">
-        <v>337698.1101336325</v>
+        <v>337698.1101336324</v>
       </c>
       <c r="D4" t="n">
-        <v>337698.1101336325</v>
+        <v>337698.1101336324</v>
       </c>
       <c r="E4" t="n">
-        <v>61729.84584348264</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="F4" t="n">
         <v>61729.84584348262</v>
       </c>
       <c r="G4" t="n">
+        <v>61729.84584348262</v>
+      </c>
+      <c r="H4" t="n">
         <v>61729.84584348263</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>61729.84584348262</v>
-      </c>
-      <c r="I4" t="n">
-        <v>61729.84584348263</v>
       </c>
       <c r="J4" t="n">
         <v>61729.84584348262</v>
       </c>
       <c r="K4" t="n">
+        <v>61729.84584348263</v>
+      </c>
+      <c r="L4" t="n">
         <v>61729.84584348262</v>
       </c>
-      <c r="L4" t="n">
-        <v>61729.84584348263</v>
-      </c>
       <c r="M4" t="n">
-        <v>61729.84584348264</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="N4" t="n">
-        <v>61729.84584348261</v>
+        <v>61729.84584348262</v>
       </c>
       <c r="O4" t="n">
         <v>61729.84584348262</v>
       </c>
       <c r="P4" t="n">
-        <v>61729.84584348263</v>
+        <v>61729.84584348262</v>
       </c>
     </row>
     <row r="5">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66928.33998284244</v>
+        <v>66928.33998284221</v>
       </c>
       <c r="C6" t="n">
         <v>147697.77151439</v>
       </c>
       <c r="D6" t="n">
-        <v>147697.77151439</v>
+        <v>147697.7715143901</v>
       </c>
       <c r="E6" t="n">
-        <v>-105874.981054402</v>
+        <v>-105874.9810544019</v>
       </c>
       <c r="F6" t="n">
         <v>239737.3617245507</v>
       </c>
       <c r="G6" t="n">
+        <v>239737.3617245508</v>
+      </c>
+      <c r="H6" t="n">
         <v>239737.3617245506</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>239737.3617245507</v>
       </c>
-      <c r="I6" t="n">
-        <v>239737.3617245508</v>
-      </c>
       <c r="J6" t="n">
-        <v>176677.4191254445</v>
+        <v>176677.4191254448</v>
       </c>
       <c r="K6" t="n">
         <v>239737.3617245508</v>
       </c>
       <c r="L6" t="n">
-        <v>239737.3617245507</v>
+        <v>239737.361724551</v>
       </c>
       <c r="M6" t="n">
         <v>153718.8279044747</v>
@@ -26558,10 +26560,10 @@
         <v>239737.3617245507</v>
       </c>
       <c r="O6" t="n">
+        <v>239737.3617245506</v>
+      </c>
+      <c r="P6" t="n">
         <v>239737.3617245508</v>
-      </c>
-      <c r="P6" t="n">
-        <v>239737.3617245507</v>
       </c>
     </row>
   </sheetData>
@@ -26753,7 +26755,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062785</v>
       </c>
       <c r="I3" t="n">
         <v>301.9048087062786</v>
@@ -26771,7 +26773,7 @@
         <v>301.9048087062786</v>
       </c>
       <c r="N3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="O3" t="n">
         <v>301.9048087062787</v>
@@ -26796,13 +26798,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="F4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="G4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="H4" t="n">
         <v>586.1874555205541</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.1731666428949</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.1731666428948</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1731666428951</v>
+        <v>345.1731666428949</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>201.814466900211</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27421,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27442,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>179.6244982918735</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -27461,7 +27463,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,13 +27475,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>215.04196540335</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>151.9103748565573</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27549,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>57.07350359897357</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>192.6272392768849</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27673,16 +27675,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>196.131336269458</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27716,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>116.017219326629</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27755,13 +27757,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>142.4405395777382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>37.52545250819722</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>95.24412853877561</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27944,10 +27946,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>14.00696723134699</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27977,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27995,7 +27997,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>34.50357226344606</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28029,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -31756,25 +31758,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M11" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N11" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O11" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P11" t="n">
         <v>174.5298045144673</v>
@@ -31783,16 +31785,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S11" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I12" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M12" t="n">
         <v>164.5381207449218</v>
@@ -31859,7 +31861,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R12" t="n">
         <v>40.31853275515171</v>
@@ -31868,10 +31870,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T12" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N13" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R13" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T13" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,25 +31995,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K14" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M14" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N14" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P14" t="n">
         <v>174.5298045144673</v>
@@ -32020,16 +32022,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S14" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I15" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L15" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M15" t="n">
         <v>164.5381207449218</v>
@@ -32096,7 +32098,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R15" t="n">
         <v>40.31853275515171</v>
@@ -32105,10 +32107,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T15" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K16" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N16" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R16" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T16" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,25 +32232,25 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I17" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J17" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K17" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L17" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M17" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N17" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O17" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P17" t="n">
         <v>174.5298045144673</v>
@@ -32257,16 +32259,16 @@
         <v>131.0646147183121</v>
       </c>
       <c r="R17" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S17" t="n">
         <v>27.65690785284151</v>
       </c>
       <c r="T17" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H18" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I18" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J18" t="n">
-        <v>61.35218381454669</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K18" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L18" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M18" t="n">
         <v>164.5381207449218</v>
@@ -32333,7 +32335,7 @@
         <v>124.0031279382449</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R18" t="n">
         <v>40.31853275515171</v>
@@ -32342,10 +32344,10 @@
         <v>12.06195155538763</v>
       </c>
       <c r="T18" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H19" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I19" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J19" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K19" t="n">
-        <v>63.25153205354491</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L19" t="n">
-        <v>80.94018428823739</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M19" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N19" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O19" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P19" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R19" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S19" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T19" t="n">
         <v>2.32615180478608</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.213687673191069</v>
+        <v>1.213687673191068</v>
       </c>
       <c r="H20" t="n">
-        <v>12.42967888306804</v>
+        <v>12.42967888306803</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J20" t="n">
-        <v>103.0102241525006</v>
+        <v>103.0102241525005</v>
       </c>
       <c r="K20" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L20" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M20" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N20" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O20" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108853</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284152</v>
+        <v>27.6569078528415</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393905</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.09709501385528546</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757689</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I21" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J21" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454667</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L21" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N21" t="n">
-        <v>168.8929552025813</v>
+        <v>168.8929552025812</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.89280709988242</v>
+        <v>82.89280709988236</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515172</v>
+        <v>40.3185327551517</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T21" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051113</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031251</v>
       </c>
       <c r="H22" t="n">
-        <v>4.840375457618701</v>
+        <v>4.840375457618697</v>
       </c>
       <c r="I22" t="n">
-        <v>16.37214929836672</v>
+        <v>16.37214929836671</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354489</v>
       </c>
       <c r="L22" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823736</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069441</v>
       </c>
       <c r="N22" t="n">
-        <v>83.31087942545561</v>
+        <v>83.31087942545557</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598721</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292339</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464805</v>
       </c>
       <c r="R22" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031732</v>
       </c>
       <c r="T22" t="n">
-        <v>2.326151804786081</v>
+        <v>2.326151804786079</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33889,7 +33891,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I38" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J38" t="n">
         <v>103.0102241525006</v>
@@ -33910,22 +33912,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P38" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q38" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R38" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S38" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T38" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H39" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I39" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J39" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K39" t="n">
         <v>104.8606541711232</v>
@@ -33980,25 +33982,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M39" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N39" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O39" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P39" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S39" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T39" t="n">
         <v>2.617457728311981</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H40" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I40" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J40" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K40" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L40" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M40" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N40" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O40" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P40" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q40" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R40" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S40" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T40" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34705,13 +34707,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34793,7 +34795,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34945,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35024,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>55.51629994036225</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
@@ -35416,13 +35418,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M11" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N11" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
@@ -35486,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093428</v>
+        <v>14.92312141674905</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M12" t="n">
-        <v>332.1534122685987</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
         <v>516.8936174628016</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
@@ -35583,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
@@ -35653,13 +35655,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M14" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N14" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K15" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L15" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M15" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O15" t="n">
-        <v>405.7701329255822</v>
+        <v>189.2088021329884</v>
       </c>
       <c r="P15" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
@@ -35820,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K17" t="n">
         <v>258.4411848848628</v>
@@ -35890,13 +35892,13 @@
         <v>373.4238170675629</v>
       </c>
       <c r="M17" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N17" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O17" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P17" t="n">
         <v>265.0955169306804</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K18" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L18" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M18" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
-        <v>513.9261999082067</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O18" t="n">
         <v>405.7701329255822</v>
@@ -35981,7 +35983,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L19" t="n">
         <v>108.5302095485535</v>
@@ -36057,7 +36059,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P19" t="n">
-        <v>63.12350311781691</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788802</v>
       </c>
       <c r="K20" t="n">
-        <v>258.4411848848628</v>
+        <v>258.4411848848627</v>
       </c>
       <c r="L20" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M20" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N20" t="n">
-        <v>424.4951865620588</v>
+        <v>424.4951865620587</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P20" t="n">
-        <v>265.0955169306804</v>
+        <v>265.0955169306803</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>167.911442166459</v>
+        <v>228.5170346547486</v>
       </c>
       <c r="L21" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M21" t="n">
-        <v>488.1091505729034</v>
+        <v>488.1091505729033</v>
       </c>
       <c r="N21" t="n">
-        <v>516.8936174628016</v>
+        <v>516.8936174628014</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P21" t="n">
         <v>308.4914891638518</v>
@@ -36279,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766203</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36294,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781688</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36452,10 +36454,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>167.911442166459</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36692,7 +36694,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36920,7 +36922,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N30" t="n">
-        <v>516.8936174628016</v>
+        <v>360.9378791584968</v>
       </c>
       <c r="O30" t="n">
         <v>405.7701329255822</v>
@@ -36929,7 +36931,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K33" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37163,10 +37165,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K36" t="n">
         <v>231.4844522093428</v>
@@ -37391,10 +37393,10 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M36" t="n">
-        <v>332.1534122685987</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>91.06093479788754</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K38" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L38" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M38" t="n">
         <v>432.2802359107712</v>
@@ -37555,13 +37557,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O38" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P38" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q38" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.60559248828884</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093429</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37631,16 +37633,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O39" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L40" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M40" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N40" t="n">
         <v>127.4430518046842</v>
@@ -37716,7 +37718,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P40" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q41" t="n">
-        <v>121.0739155037669</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037669</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>60.60559248828884</v>
       </c>
       <c r="K45" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38108,7 +38110,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O45" t="n">
-        <v>405.7701329255823</v>
+        <v>189.2088021329886</v>
       </c>
       <c r="P45" t="n">
         <v>308.4914891638518</v>
